--- a/sintetics_nov.xlsx
+++ b/sintetics_nov.xlsx
@@ -11,46 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="71">
-  <si>
-    <t>Primeira Igreja Batista em São Bento do Sul - SC</t>
-  </si>
-  <si>
-    <t>Balancete Sintético</t>
-  </si>
-  <si>
-    <t>Período de 01/11/2023 até 30/11/2023</t>
-  </si>
-  <si>
-    <t>Página 1 de 3</t>
-  </si>
-  <si>
-    <t>Receita</t>
-  </si>
-  <si>
-    <t>Despesa</t>
-  </si>
-  <si>
-    <t>01-000-000 - Primeira Igreja Batista em São Bento do Sul</t>
-  </si>
-  <si>
-    <t>Saldo Anterior</t>
-  </si>
-  <si>
-    <t>CAIXA</t>
-  </si>
-  <si>
-    <t>Departamento</t>
-  </si>
-  <si>
-    <t>1 - Tesouraria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1 - </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>1.1.001 - Dízimos e Contribuições</t>
   </si>
@@ -80,150 +41,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total do Grupo 1 - </t>
-  </si>
-  <si>
-    <t>2 - DESPESAS</t>
-  </si>
-  <si>
-    <t>2.3 - DESPESA ADMINISTRATIVA</t>
-  </si>
-  <si>
-    <t>2.3.001 - Combustível</t>
-  </si>
-  <si>
-    <t>2.3.002 - Impostos diversos</t>
-  </si>
-  <si>
-    <t>2.3.003 - Taxas diversas</t>
-  </si>
-  <si>
-    <t>2.3.004 - Plano Cooperativo Ibpaz</t>
-  </si>
-  <si>
-    <t>2.3.006 - Papelaria e Gráfica</t>
-  </si>
-  <si>
-    <t>2.3.009 - Mat elétrico; hidráulico</t>
-  </si>
-  <si>
-    <t>2.3.014 - Despesas diversas</t>
-  </si>
-  <si>
-    <t>2.3.016 - Eventos Igreja</t>
-  </si>
-  <si>
-    <t>2.3.017 - Prestação de serviços</t>
-  </si>
-  <si>
-    <t>2.3.025 - Construção Propriedade M. Preto</t>
-  </si>
-  <si>
-    <t>Total do Grupo 2.3 - DESPESA ADMINISTRATIVA</t>
-  </si>
-  <si>
-    <t>2.4 - DESPESAS SALARIAIS</t>
-  </si>
-  <si>
-    <t>2.4.001 - Salário</t>
-  </si>
-  <si>
-    <t>2.4.002 - Férias</t>
-  </si>
-  <si>
-    <t>2.4.003 - 13º Salário</t>
-  </si>
-  <si>
-    <t>2.4.004 - Ajuda de Custo</t>
-  </si>
-  <si>
-    <t>2.4.005 - Encargos</t>
-  </si>
-  <si>
-    <t>Total do Grupo 2.4 - DESPESAS SALARIAIS</t>
-  </si>
-  <si>
-    <t>2.5 - DESPESAS MENSAIS</t>
-  </si>
-  <si>
-    <t>2.5.002 - Água</t>
-  </si>
-  <si>
-    <t>2.5.003 - Energia</t>
-  </si>
-  <si>
-    <t>2.5.004 - Telefone e internet</t>
-  </si>
-  <si>
-    <t>Total do Grupo 2.5 - DESPESAS MENSAIS</t>
-  </si>
-  <si>
-    <t>2.6 - DESPESAS OUTROS IMÓVEIS</t>
-  </si>
-  <si>
-    <t>2.6.001 - Despesas chácara</t>
-  </si>
-  <si>
-    <t>2.6.002 - Aluguel Imóvel</t>
-  </si>
-  <si>
-    <t>Total do Grupo 2.6 - DESPESAS OUTROS IMÓVEIS</t>
-  </si>
-  <si>
-    <t>2.7 - DESPESAS EXTRAS</t>
-  </si>
-  <si>
-    <t>2.7.002 - Aquisições diversas</t>
-  </si>
-  <si>
-    <t>2.7.005 - Comissão sob venda</t>
-  </si>
-  <si>
-    <t>Total do Grupo 2.7 - DESPESAS EXTRAS</t>
-  </si>
-  <si>
-    <t>Total do Grupo 2 - DESPESAS</t>
-  </si>
-  <si>
-    <t>Total do Departamento 1 - Tesouraria</t>
-  </si>
-  <si>
-    <t>Total da Conta CAIXA</t>
-  </si>
-  <si>
-    <t>Movimentações (Transferência, Depósito, Saque)</t>
-  </si>
-  <si>
-    <t>Entradas</t>
-  </si>
-  <si>
-    <t>Receitas</t>
-  </si>
-  <si>
-    <t>Saídas</t>
-  </si>
-  <si>
-    <t>Despesas</t>
-  </si>
-  <si>
-    <t>Saldo Final</t>
-  </si>
-  <si>
-    <t>www.membrosweb.com.br - Impresso em 03/05/2024  às 21:18 por ADM</t>
-  </si>
-  <si>
-    <t>Página 2 de 3</t>
-  </si>
-  <si>
-    <t>01-000-001 - Congregação Batista em Campo Alegre</t>
-  </si>
-  <si>
-    <t>Página 3 de 3</t>
-  </si>
-  <si>
-    <t>01-000-002 - Congregação Batista em Santa Cecília</t>
-  </si>
-  <si>
-    <t>1.1.004 - Oferta Específica</t>
   </si>
 </sst>
 </file>
@@ -629,91 +446,47 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1"/>
-    <row r="3" ht="22.5" customHeight="1">
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" ht="11.25" customHeight="1">
-      <c r="M6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="8">
-        <v>40032.44</v>
-      </c>
-      <c r="P7" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="8">
-        <v>40032.44</v>
-      </c>
-      <c r="P8" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" ht="11.25" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="8">
-        <v>40032.44</v>
-      </c>
-      <c r="P9" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" ht="11.25" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" ht="11.25" customHeight="1">
-      <c r="A11" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="3">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="5">
+      <c r="C5" s="3"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="M6" s="5"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="10"/>
+      <c r="J8" s="7"/>
+      <c r="M8" s="8"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="J9" s="7"/>
+      <c r="M9" s="8"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="12"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="12"/>
     </row>
     <row r="12" ht="10.5" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M12" s="14">
         <v>1617.03</v>
@@ -724,7 +497,7 @@
     </row>
     <row r="13" ht="11.25" customHeight="1">
       <c r="A13" s="13" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M13" s="14">
         <v>60.0</v>
@@ -735,7 +508,7 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="J14" s="4" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M14" s="15">
         <v>1677.03</v>
@@ -748,12 +521,12 @@
     </row>
     <row r="15" ht="11.25" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" ht="10.5" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="M16" s="14">
         <v>600879.16</v>
@@ -764,7 +537,7 @@
     </row>
     <row r="17" ht="10.5" customHeight="1">
       <c r="A17" s="13" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="M17" s="14">
         <v>5504.66</v>
@@ -775,7 +548,7 @@
     </row>
     <row r="18" ht="10.5" customHeight="1">
       <c r="A18" s="13" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="M18" s="14">
         <v>30.0</v>
@@ -786,7 +559,7 @@
     </row>
     <row r="19" ht="11.25" customHeight="1">
       <c r="A19" s="13" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="M19" s="14">
         <v>23722.0</v>
@@ -797,7 +570,7 @@
     </row>
     <row r="20" ht="13.5" customHeight="1">
       <c r="J20" s="4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M20" s="15">
         <v>630135.8200000001</v>
@@ -810,7 +583,7 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="J21" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="M21" s="15">
         <v>631812.8500000001</v>
@@ -822,686 +595,344 @@
       <c r="Q21" s="16"/>
     </row>
     <row r="22" ht="11.25" customHeight="1">
-      <c r="A22" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="A22" s="12"/>
     </row>
     <row r="23" ht="11.25" customHeight="1">
-      <c r="A23" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="A23" s="12"/>
     </row>
     <row r="24" ht="10.5" customHeight="1">
-      <c r="A24" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P24" s="14">
-        <v>924.85</v>
-      </c>
+      <c r="A24" s="13"/>
+      <c r="M24" s="14"/>
+      <c r="P24" s="14"/>
     </row>
     <row r="25" ht="10.5" customHeight="1">
-      <c r="A25" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M25" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P25" s="14">
-        <v>466.64</v>
-      </c>
+      <c r="A25" s="13"/>
+      <c r="M25" s="14"/>
+      <c r="P25" s="14"/>
     </row>
     <row r="26" ht="10.5" customHeight="1">
-      <c r="A26" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M26" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P26" s="14">
-        <v>1052.51</v>
-      </c>
+      <c r="A26" s="13"/>
+      <c r="M26" s="14"/>
+      <c r="P26" s="14"/>
     </row>
     <row r="27" ht="10.5" customHeight="1">
-      <c r="A27" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M27" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P27" s="14">
-        <v>200.0</v>
-      </c>
+      <c r="A27" s="13"/>
+      <c r="M27" s="14"/>
+      <c r="P27" s="14"/>
     </row>
     <row r="28" ht="10.5" customHeight="1">
-      <c r="A28" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P28" s="14">
-        <v>425.26</v>
-      </c>
+      <c r="A28" s="13"/>
+      <c r="M28" s="14"/>
+      <c r="P28" s="14"/>
     </row>
     <row r="29" ht="10.5" customHeight="1">
-      <c r="A29" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M29" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P29" s="14">
-        <v>765.04</v>
-      </c>
+      <c r="A29" s="13"/>
+      <c r="M29" s="14"/>
+      <c r="P29" s="14"/>
     </row>
     <row r="30" ht="10.5" customHeight="1">
-      <c r="A30" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P30" s="14">
-        <v>228.24</v>
-      </c>
+      <c r="A30" s="13"/>
+      <c r="M30" s="14"/>
+      <c r="P30" s="14"/>
     </row>
     <row r="31" ht="10.5" customHeight="1">
-      <c r="A31" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M31" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P31" s="14">
-        <v>727.26</v>
-      </c>
+      <c r="A31" s="13"/>
+      <c r="M31" s="14"/>
+      <c r="P31" s="14"/>
     </row>
     <row r="32" ht="10.5" customHeight="1">
-      <c r="A32" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M32" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P32" s="14">
-        <v>1433.27</v>
-      </c>
+      <c r="A32" s="13"/>
+      <c r="M32" s="14"/>
+      <c r="P32" s="14"/>
     </row>
     <row r="33" ht="11.25" customHeight="1">
-      <c r="A33" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M33" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P33" s="14">
-        <v>672.88</v>
-      </c>
+      <c r="A33" s="13"/>
+      <c r="M33" s="14"/>
+      <c r="P33" s="14"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="F34" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M34" s="15">
-        <v>0.0</v>
-      </c>
+      <c r="F34" s="4"/>
+      <c r="M34" s="15"/>
       <c r="N34" s="16"/>
-      <c r="P34" s="15">
-        <v>6895.95</v>
-      </c>
+      <c r="P34" s="15"/>
       <c r="Q34" s="16"/>
     </row>
     <row r="35" ht="11.25" customHeight="1">
-      <c r="A35" s="12" t="s">
-        <v>36</v>
-      </c>
+      <c r="A35" s="12"/>
     </row>
     <row r="36" ht="10.5" customHeight="1">
-      <c r="A36" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="M36" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P36" s="14">
-        <v>28604.72</v>
-      </c>
+      <c r="A36" s="13"/>
+      <c r="M36" s="14"/>
+      <c r="P36" s="14"/>
     </row>
     <row r="37" ht="10.5" customHeight="1">
-      <c r="A37" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M37" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P37" s="14">
-        <v>1257.4</v>
-      </c>
+      <c r="A37" s="13"/>
+      <c r="M37" s="14"/>
+      <c r="P37" s="14"/>
     </row>
     <row r="38" ht="10.5" customHeight="1">
-      <c r="A38" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="M38" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P38" s="14">
-        <v>1560.0</v>
-      </c>
+      <c r="A38" s="13"/>
+      <c r="M38" s="14"/>
+      <c r="P38" s="14"/>
     </row>
     <row r="39" ht="10.5" customHeight="1">
-      <c r="A39" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M39" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P39" s="14">
-        <v>2840.34</v>
-      </c>
+      <c r="A39" s="13"/>
+      <c r="M39" s="14"/>
+      <c r="P39" s="14"/>
     </row>
     <row r="40" ht="11.25" customHeight="1">
-      <c r="A40" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M40" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P40" s="14">
-        <v>264.85</v>
-      </c>
+      <c r="A40" s="13"/>
+      <c r="M40" s="14"/>
+      <c r="P40" s="14"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="G41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M41" s="15">
-        <v>0.0</v>
-      </c>
+      <c r="G41" s="4"/>
+      <c r="M41" s="15"/>
       <c r="N41" s="16"/>
-      <c r="P41" s="15">
-        <v>34527.310000000005</v>
-      </c>
+      <c r="P41" s="15"/>
       <c r="Q41" s="16"/>
     </row>
     <row r="42" ht="11.25" customHeight="1">
-      <c r="A42" s="12" t="s">
-        <v>43</v>
-      </c>
+      <c r="A42" s="12"/>
     </row>
     <row r="43" ht="10.5" customHeight="1">
-      <c r="A43" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="M43" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P43" s="14">
-        <v>160.24</v>
-      </c>
+      <c r="A43" s="13"/>
+      <c r="M43" s="14"/>
+      <c r="P43" s="14"/>
     </row>
     <row r="44" ht="10.5" customHeight="1">
-      <c r="A44" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="M44" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P44" s="14">
-        <v>538.76</v>
-      </c>
+      <c r="A44" s="13"/>
+      <c r="M44" s="14"/>
+      <c r="P44" s="14"/>
     </row>
     <row r="45" ht="11.25" customHeight="1">
-      <c r="A45" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="M45" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P45" s="14">
-        <v>231.76</v>
-      </c>
+      <c r="A45" s="13"/>
+      <c r="M45" s="14"/>
+      <c r="P45" s="14"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="G46" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M46" s="15">
-        <v>0.0</v>
-      </c>
+      <c r="G46" s="4"/>
+      <c r="M46" s="15"/>
       <c r="N46" s="16"/>
-      <c r="P46" s="15">
-        <v>930.76</v>
-      </c>
+      <c r="P46" s="15"/>
       <c r="Q46" s="16"/>
     </row>
     <row r="47" ht="11.25" customHeight="1">
-      <c r="A47" s="12" t="s">
-        <v>48</v>
-      </c>
+      <c r="A47" s="12"/>
     </row>
     <row r="48" ht="10.5" customHeight="1">
-      <c r="A48" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M48" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P48" s="14">
-        <v>140.31</v>
-      </c>
+      <c r="A48" s="13"/>
+      <c r="M48" s="14"/>
+      <c r="P48" s="14"/>
     </row>
     <row r="49" ht="11.25" customHeight="1">
-      <c r="A49" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="M49" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P49" s="14">
-        <v>2617.78</v>
-      </c>
+      <c r="A49" s="13"/>
+      <c r="M49" s="14"/>
+      <c r="P49" s="14"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="F50" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M50" s="15">
-        <v>0.0</v>
-      </c>
+      <c r="F50" s="4"/>
+      <c r="M50" s="15"/>
       <c r="N50" s="16"/>
-      <c r="P50" s="15">
-        <v>2758.09</v>
-      </c>
+      <c r="P50" s="15"/>
       <c r="Q50" s="16"/>
     </row>
     <row r="51" ht="11.25" customHeight="1">
-      <c r="A51" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="A51" s="12"/>
     </row>
     <row r="52" ht="10.5" customHeight="1">
-      <c r="A52" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M52" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P52" s="14">
-        <v>553.34</v>
-      </c>
+      <c r="A52" s="13"/>
+      <c r="M52" s="14"/>
+      <c r="P52" s="14"/>
     </row>
     <row r="53" ht="11.25" customHeight="1">
-      <c r="A53" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="M53" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P53" s="14">
-        <v>90000.0</v>
-      </c>
+      <c r="A53" s="13"/>
+      <c r="M53" s="14"/>
+      <c r="P53" s="14"/>
     </row>
     <row r="54" ht="13.5" customHeight="1">
-      <c r="G54" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M54" s="15">
-        <v>0.0</v>
-      </c>
+      <c r="G54" s="4"/>
+      <c r="M54" s="15"/>
       <c r="N54" s="16"/>
-      <c r="P54" s="15">
-        <v>90553.34</v>
-      </c>
+      <c r="P54" s="15"/>
       <c r="Q54" s="16"/>
     </row>
     <row r="55" ht="13.5" customHeight="1">
-      <c r="I55" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M55" s="15">
-        <v>0.0</v>
-      </c>
+      <c r="I55" s="4"/>
+      <c r="M55" s="15"/>
       <c r="N55" s="16"/>
-      <c r="P55" s="15">
-        <v>135665.45</v>
-      </c>
+      <c r="P55" s="15"/>
       <c r="Q55" s="16"/>
     </row>
     <row r="56" ht="13.5" customHeight="1">
-      <c r="H56" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M56" s="15">
-        <v>631812.8500000001</v>
-      </c>
+      <c r="H56" s="4"/>
+      <c r="M56" s="15"/>
       <c r="N56" s="16"/>
-      <c r="P56" s="15">
-        <v>135665.45</v>
-      </c>
+      <c r="P56" s="15"/>
       <c r="Q56" s="16"/>
     </row>
     <row r="57" ht="9.75" customHeight="1">
-      <c r="J57" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M57" s="15">
-        <v>631812.8500000001</v>
-      </c>
+      <c r="J57" s="4"/>
+      <c r="M57" s="15"/>
       <c r="N57" s="16"/>
-      <c r="P57" s="15">
-        <v>135665.45</v>
-      </c>
+      <c r="P57" s="15"/>
       <c r="Q57" s="16"/>
     </row>
     <row r="58" ht="13.5" customHeight="1"/>
     <row r="59" ht="13.5" customHeight="1">
-      <c r="K59" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="K59" s="17"/>
     </row>
     <row r="60" ht="12.0" customHeight="1">
-      <c r="A60" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O60" s="8">
-        <v>40032.44</v>
-      </c>
+      <c r="A60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="O60" s="8"/>
     </row>
     <row r="61" ht="12.0" customHeight="1">
-      <c r="A61" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P61" s="8">
-        <v>631812.85</v>
-      </c>
+      <c r="A61" s="18"/>
+      <c r="I61" s="11"/>
+      <c r="P61" s="8"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="P62" s="9">
-        <v>135665.45</v>
-      </c>
+      <c r="A62" s="19"/>
+      <c r="I62" s="11"/>
+      <c r="P62" s="9"/>
     </row>
     <row r="63" ht="9.75" customHeight="1">
-      <c r="I63" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="O63" s="8">
-        <v>536179.8400000001</v>
-      </c>
+      <c r="I63" s="11"/>
+      <c r="O63" s="8"/>
     </row>
     <row r="64" ht="20.25" customHeight="1"/>
     <row r="65" ht="9.75" customHeight="1">
-      <c r="A65" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="A65" s="20"/>
     </row>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="13.5" customHeight="1"/>
     <row r="68" ht="13.5" customHeight="1">
-      <c r="C68" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="C68" s="1"/>
     </row>
     <row r="69" ht="14.25" customHeight="1"/>
     <row r="70" ht="22.5" customHeight="1">
-      <c r="C70" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="C70" s="2"/>
     </row>
     <row r="71" ht="12.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="C72" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P72" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="C72" s="3"/>
+      <c r="P72" s="4"/>
     </row>
     <row r="73" ht="11.25" customHeight="1">
-      <c r="M73" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P73" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="M73" s="5"/>
+      <c r="P73" s="5"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M74" s="8">
-        <v>13521.21</v>
-      </c>
-      <c r="P74" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="A74" s="6"/>
+      <c r="J74" s="7"/>
+      <c r="M74" s="8"/>
+      <c r="P74" s="9"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M75" s="8">
-        <v>13521.21</v>
-      </c>
-      <c r="P75" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="A75" s="10"/>
+      <c r="J75" s="7"/>
+      <c r="M75" s="8"/>
+      <c r="P75" s="9"/>
     </row>
     <row r="76" ht="11.25" customHeight="1">
-      <c r="A76" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M76" s="8">
-        <v>13521.21</v>
-      </c>
-      <c r="P76" s="9">
-        <v>0.0</v>
-      </c>
+      <c r="A76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="J76" s="7"/>
+      <c r="M76" s="8"/>
+      <c r="P76" s="9"/>
     </row>
     <row r="77" ht="11.25" customHeight="1">
-      <c r="A77" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="A77" s="12"/>
     </row>
     <row r="78" ht="11.25" customHeight="1">
-      <c r="A78" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="A78" s="12"/>
     </row>
     <row r="79" ht="11.25" customHeight="1">
-      <c r="A79" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M79" s="14">
-        <v>121.89</v>
-      </c>
-      <c r="P79" s="14">
-        <v>0.0</v>
-      </c>
+      <c r="A79" s="13"/>
+      <c r="M79" s="14"/>
+      <c r="P79" s="14"/>
     </row>
     <row r="80" ht="13.5" customHeight="1">
-      <c r="J80" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M80" s="15">
-        <v>121.89</v>
-      </c>
+      <c r="J80" s="4"/>
+      <c r="M80" s="15"/>
       <c r="N80" s="16"/>
-      <c r="P80" s="15">
-        <v>0.0</v>
-      </c>
+      <c r="P80" s="15"/>
       <c r="Q80" s="16"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="J81" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M81" s="15">
-        <v>121.89</v>
-      </c>
+      <c r="J81" s="4"/>
+      <c r="M81" s="15"/>
       <c r="N81" s="16"/>
-      <c r="P81" s="15">
-        <v>0.0</v>
-      </c>
+      <c r="P81" s="15"/>
       <c r="Q81" s="16"/>
     </row>
     <row r="82" ht="11.25" customHeight="1">
-      <c r="A82" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="A82" s="12"/>
     </row>
     <row r="83" ht="11.25" customHeight="1">
-      <c r="A83" s="12" t="s">
-        <v>43</v>
-      </c>
+      <c r="A83" s="12"/>
     </row>
     <row r="84" ht="10.5" customHeight="1">
-      <c r="A84" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="M84" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P84" s="14">
-        <v>59.59</v>
-      </c>
+      <c r="A84" s="13"/>
+      <c r="M84" s="14"/>
+      <c r="P84" s="14"/>
     </row>
     <row r="85" ht="11.25" customHeight="1">
-      <c r="A85" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="M85" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P85" s="14">
-        <v>62.3</v>
-      </c>
+      <c r="A85" s="13"/>
+      <c r="M85" s="14"/>
+      <c r="P85" s="14"/>
     </row>
     <row r="86" ht="13.5" customHeight="1">
-      <c r="G86" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M86" s="15">
-        <v>0.0</v>
-      </c>
+      <c r="G86" s="4"/>
+      <c r="M86" s="15"/>
       <c r="N86" s="16"/>
-      <c r="P86" s="15">
-        <v>121.89</v>
-      </c>
+      <c r="P86" s="15"/>
       <c r="Q86" s="16"/>
     </row>
     <row r="87" ht="13.5" customHeight="1">
-      <c r="I87" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M87" s="15">
-        <v>0.0</v>
-      </c>
+      <c r="I87" s="4"/>
+      <c r="M87" s="15"/>
       <c r="N87" s="16"/>
-      <c r="P87" s="15">
-        <v>121.89</v>
-      </c>
+      <c r="P87" s="15"/>
       <c r="Q87" s="16"/>
     </row>
     <row r="88" ht="13.5" customHeight="1">
-      <c r="H88" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M88" s="15">
-        <v>121.89</v>
-      </c>
+      <c r="H88" s="4"/>
+      <c r="M88" s="15"/>
       <c r="N88" s="16"/>
-      <c r="P88" s="15">
-        <v>121.89</v>
-      </c>
+      <c r="P88" s="15"/>
       <c r="Q88" s="16"/>
     </row>
     <row r="89" ht="9.75" customHeight="1">
-      <c r="J89" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M89" s="15">
-        <v>121.89</v>
-      </c>
+      <c r="J89" s="4"/>
+      <c r="M89" s="15"/>
       <c r="N89" s="16"/>
-      <c r="P89" s="15">
-        <v>121.89</v>
-      </c>
+      <c r="P89" s="15"/>
       <c r="Q89" s="16"/>
     </row>
     <row r="90" ht="13.5" customHeight="1"/>
     <row r="91" ht="13.5" customHeight="1">
-      <c r="K91" s="17" t="s">
-        <v>67</v>
-      </c>
+      <c r="K91" s="17"/>
     </row>
     <row r="92" ht="12.0" customHeight="1">
-      <c r="A92" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I92" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O92" s="8">
-        <v>13521.21</v>
-      </c>
+      <c r="A92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="O92" s="8"/>
     </row>
     <row r="93" ht="12.0" customHeight="1">
-      <c r="A93" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I93" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q93" s="8">
-        <v>121.89</v>
-      </c>
+      <c r="A93" s="18"/>
+      <c r="I93" s="11"/>
+      <c r="Q93" s="8"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I94" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q94" s="9">
-        <v>121.89</v>
-      </c>
+      <c r="A94" s="19"/>
+      <c r="I94" s="11"/>
+      <c r="Q94" s="9"/>
     </row>
     <row r="95" ht="9.75" customHeight="1">
-      <c r="I95" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="O95" s="8">
-        <v>13521.21</v>
-      </c>
+      <c r="I95" s="11"/>
+      <c r="O95" s="8"/>
     </row>
     <row r="96" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
@@ -1531,320 +962,166 @@
     <row r="121" ht="15.75" customHeight="1"/>
     <row r="122" ht="20.25" customHeight="1"/>
     <row r="123" ht="9.75" customHeight="1">
-      <c r="A123" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="A123" s="20"/>
     </row>
     <row r="124" ht="15.75" customHeight="1"/>
     <row r="125" ht="13.5" customHeight="1"/>
     <row r="126" ht="13.5" customHeight="1">
-      <c r="C126" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="C126" s="1"/>
     </row>
     <row r="127" ht="14.25" customHeight="1"/>
     <row r="128" ht="22.5" customHeight="1">
-      <c r="C128" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="C128" s="2"/>
     </row>
     <row r="129" ht="12.75" customHeight="1"/>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="C130" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P130" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="C130" s="3"/>
+      <c r="P130" s="4"/>
     </row>
     <row r="131" ht="11.25" customHeight="1">
-      <c r="M131" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P131" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="M131" s="5"/>
+      <c r="P131" s="5"/>
     </row>
     <row r="132" ht="12.75" customHeight="1">
-      <c r="A132" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J132" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M132" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="P132" s="9">
-        <v>-41266.34</v>
-      </c>
+      <c r="A132" s="6"/>
+      <c r="J132" s="7"/>
+      <c r="M132" s="8"/>
+      <c r="P132" s="9"/>
     </row>
     <row r="133" ht="12.75" customHeight="1">
-      <c r="A133" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J133" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M133" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="P133" s="9">
-        <v>-41266.34</v>
-      </c>
+      <c r="A133" s="10"/>
+      <c r="J133" s="7"/>
+      <c r="M133" s="8"/>
+      <c r="P133" s="9"/>
     </row>
     <row r="134" ht="11.25" customHeight="1">
-      <c r="A134" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J134" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M134" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="P134" s="9">
-        <v>-41266.34</v>
-      </c>
+      <c r="A134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="J134" s="7"/>
+      <c r="M134" s="8"/>
+      <c r="P134" s="9"/>
     </row>
     <row r="135" ht="11.25" customHeight="1">
-      <c r="A135" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="A135" s="12"/>
     </row>
     <row r="136" ht="11.25" customHeight="1">
-      <c r="A136" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="A136" s="12"/>
     </row>
     <row r="137" ht="11.25" customHeight="1">
-      <c r="A137" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="M137" s="14">
-        <v>2310.0</v>
-      </c>
-      <c r="P137" s="14">
-        <v>0.0</v>
-      </c>
+      <c r="A137" s="13"/>
+      <c r="M137" s="14"/>
+      <c r="P137" s="14"/>
     </row>
     <row r="138" ht="13.5" customHeight="1">
-      <c r="J138" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M138" s="15">
-        <v>2310.0</v>
-      </c>
+      <c r="J138" s="4"/>
+      <c r="M138" s="15"/>
       <c r="N138" s="16"/>
-      <c r="P138" s="15">
-        <v>0.0</v>
-      </c>
+      <c r="P138" s="15"/>
       <c r="Q138" s="16"/>
     </row>
     <row r="139" ht="12.75" customHeight="1">
-      <c r="J139" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M139" s="15">
-        <v>2310.0</v>
-      </c>
+      <c r="J139" s="4"/>
+      <c r="M139" s="15"/>
       <c r="N139" s="16"/>
-      <c r="P139" s="15">
-        <v>0.0</v>
-      </c>
+      <c r="P139" s="15"/>
       <c r="Q139" s="16"/>
     </row>
     <row r="140" ht="11.25" customHeight="1">
-      <c r="A140" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="A140" s="12"/>
     </row>
     <row r="141" ht="11.25" customHeight="1">
-      <c r="A141" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="A141" s="12"/>
     </row>
     <row r="142" ht="10.5" customHeight="1">
-      <c r="A142" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M142" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P142" s="14">
-        <v>100.0</v>
-      </c>
+      <c r="A142" s="13"/>
+      <c r="M142" s="14"/>
+      <c r="P142" s="14"/>
     </row>
     <row r="143" ht="11.25" customHeight="1">
-      <c r="A143" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M143" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P143" s="14">
-        <v>56.73</v>
-      </c>
+      <c r="A143" s="13"/>
+      <c r="M143" s="14"/>
+      <c r="P143" s="14"/>
     </row>
     <row r="144" ht="12.75" customHeight="1">
-      <c r="F144" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M144" s="15">
-        <v>0.0</v>
-      </c>
+      <c r="F144" s="4"/>
+      <c r="M144" s="15"/>
       <c r="N144" s="16"/>
-      <c r="P144" s="15">
-        <v>156.73</v>
-      </c>
+      <c r="P144" s="15"/>
       <c r="Q144" s="16"/>
     </row>
     <row r="145" ht="11.25" customHeight="1">
-      <c r="A145" s="12" t="s">
-        <v>36</v>
-      </c>
+      <c r="A145" s="12"/>
     </row>
     <row r="146" ht="11.25" customHeight="1">
-      <c r="A146" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="M146" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P146" s="14">
-        <v>3000.0</v>
-      </c>
+      <c r="A146" s="13"/>
+      <c r="M146" s="14"/>
+      <c r="P146" s="14"/>
     </row>
     <row r="147" ht="12.75" customHeight="1">
-      <c r="G147" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M147" s="15">
-        <v>0.0</v>
-      </c>
+      <c r="G147" s="4"/>
+      <c r="M147" s="15"/>
       <c r="N147" s="16"/>
-      <c r="P147" s="15">
-        <v>3000.0</v>
-      </c>
+      <c r="P147" s="15"/>
       <c r="Q147" s="16"/>
     </row>
     <row r="148" ht="11.25" customHeight="1">
-      <c r="A148" s="12" t="s">
-        <v>43</v>
-      </c>
+      <c r="A148" s="12"/>
     </row>
     <row r="149" ht="11.25" customHeight="1">
-      <c r="A149" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="M149" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="P149" s="14">
-        <v>260.8</v>
-      </c>
+      <c r="A149" s="13"/>
+      <c r="M149" s="14"/>
+      <c r="P149" s="14"/>
     </row>
     <row r="150" ht="13.5" customHeight="1">
-      <c r="G150" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M150" s="15">
-        <v>0.0</v>
-      </c>
+      <c r="G150" s="4"/>
+      <c r="M150" s="15"/>
       <c r="N150" s="16"/>
-      <c r="P150" s="15">
-        <v>260.8</v>
-      </c>
+      <c r="P150" s="15"/>
       <c r="Q150" s="16"/>
     </row>
     <row r="151" ht="13.5" customHeight="1">
-      <c r="I151" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M151" s="15">
-        <v>0.0</v>
-      </c>
+      <c r="I151" s="4"/>
+      <c r="M151" s="15"/>
       <c r="N151" s="16"/>
-      <c r="P151" s="15">
-        <v>3417.53</v>
-      </c>
+      <c r="P151" s="15"/>
       <c r="Q151" s="16"/>
     </row>
     <row r="152" ht="13.5" customHeight="1">
-      <c r="H152" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M152" s="15">
-        <v>2310.0</v>
-      </c>
+      <c r="H152" s="4"/>
+      <c r="M152" s="15"/>
       <c r="N152" s="16"/>
-      <c r="P152" s="15">
-        <v>3417.53</v>
-      </c>
+      <c r="P152" s="15"/>
       <c r="Q152" s="16"/>
     </row>
     <row r="153" ht="9.75" customHeight="1">
-      <c r="J153" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M153" s="15">
-        <v>2310.0</v>
-      </c>
+      <c r="J153" s="4"/>
+      <c r="M153" s="15"/>
       <c r="N153" s="16"/>
-      <c r="P153" s="15">
-        <v>3417.53</v>
-      </c>
+      <c r="P153" s="15"/>
       <c r="Q153" s="16"/>
     </row>
     <row r="154" ht="14.25" customHeight="1"/>
     <row r="155" ht="13.5" customHeight="1">
-      <c r="K155" s="17" t="s">
-        <v>69</v>
-      </c>
+      <c r="K155" s="17"/>
     </row>
     <row r="156" ht="12.0" customHeight="1">
-      <c r="A156" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I156" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O156" s="9">
-        <v>-41266.34</v>
-      </c>
+      <c r="A156" s="11"/>
+      <c r="I156" s="11"/>
+      <c r="O156" s="9"/>
     </row>
     <row r="157" ht="12.0" customHeight="1">
-      <c r="A157" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I157" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q157" s="8">
-        <v>2310.0</v>
-      </c>
+      <c r="A157" s="18"/>
+      <c r="I157" s="11"/>
+      <c r="Q157" s="8"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I158" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q158" s="9">
-        <v>3417.53</v>
-      </c>
+      <c r="A158" s="19"/>
+      <c r="I158" s="11"/>
+      <c r="Q158" s="9"/>
     </row>
     <row r="159" ht="9.75" customHeight="1">
-      <c r="I159" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="O159" s="9">
-        <v>-42373.869999999995</v>
-      </c>
+      <c r="I159" s="11"/>
+      <c r="O159" s="9"/>
     </row>
     <row r="160" ht="15.75" customHeight="1"/>
     <row r="161" ht="15.75" customHeight="1"/>
@@ -1870,9 +1147,7 @@
     <row r="181" ht="15.75" customHeight="1"/>
     <row r="182" ht="8.25" customHeight="1"/>
     <row r="183" ht="9.75" customHeight="1">
-      <c r="A183" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="A183" s="20"/>
     </row>
     <row r="184" ht="15.75" customHeight="1"/>
     <row r="185" ht="13.5" customHeight="1"/>
@@ -2826,6 +2101,51 @@
     <mergeCell ref="A28:J28"/>
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="A30:J30"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="P30:Q30"/>
     <mergeCell ref="P31:Q31"/>
     <mergeCell ref="P21:Q21"/>
@@ -2873,55 +2193,6 @@
     <mergeCell ref="P43:Q43"/>
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C1:O1"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="P46:Q46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A48:J48"/>
     <mergeCell ref="M48:N48"/>
@@ -2965,6 +2236,10 @@
     <mergeCell ref="C68:O68"/>
     <mergeCell ref="C70:G70"/>
     <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
